--- a/ontology_tables/person_ontology.xlsx
+++ b/ontology_tables/person_ontology.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/q436477/Projekte/knowledge_agents/ontology/ontology_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE731E60-2B31-9B4D-870F-95335B7873E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="35600" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -209,9 +215,6 @@
   </si>
   <si>
     <t>speaks</t>
-  </si>
-  <si>
-    <t>owl:Thing</t>
   </si>
   <si>
     <t>name</t>
@@ -559,8 +562,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,14 +641,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF800080"/>
       </font>
     </dxf>
     <dxf>
@@ -655,16 +657,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF800080"/>
+        <b/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -706,7 +717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,9 +749,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,6 +801,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,17 +994,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="15" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1028,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1036,7 +1085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,39 +1093,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1090,22 +1136,22 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1113,34 +1159,34 @@
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1148,28 +1194,28 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1177,31 +1223,31 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1209,28 +1255,28 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1238,34 +1284,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,22 +1319,22 @@
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,28 +1348,28 @@
         <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1337,25 +1383,25 @@
         <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1366,25 +1412,25 @@
         <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,31 +1438,31 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,22 +1473,22 @@
         <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1453,25 +1499,25 @@
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="1">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,34 +1525,34 @@
         <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1514,34 +1560,34 @@
         <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1549,34 +1595,34 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1584,34 +1630,34 @@
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1622,19 +1668,19 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1645,25 +1691,25 @@
         <v>33</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1677,13 +1723,13 @@
         <v>33</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,22 +1740,22 @@
         <v>33</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1723,13 +1769,13 @@
         <v>33</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -1740,13 +1786,13 @@
         <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -1760,10 +1806,10 @@
         <v>33</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1774,13 +1820,13 @@
         <v>33</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -1794,10 +1840,10 @@
         <v>33</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1808,16 +1854,16 @@
         <v>33</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -1831,10 +1877,10 @@
         <v>33</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -1845,16 +1891,16 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
@@ -1879,57 +1925,57 @@
         <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A999">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"relation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"attribute"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location=""/>
-    <hyperlink ref="M12" r:id="rId2"/>
-    <hyperlink ref="M13" r:id="rId3"/>
-    <hyperlink ref="M14" r:id="rId4"/>
-    <hyperlink ref="M16" r:id="rId5"/>
-    <hyperlink ref="M17" r:id="rId6"/>
-    <hyperlink ref="M18" r:id="rId7"/>
-    <hyperlink ref="M19" r:id="rId8"/>
-    <hyperlink ref="M21" r:id="rId9"/>
-    <hyperlink ref="M22" r:id="rId10"/>
-    <hyperlink ref="M23" r:id="rId11"/>
-    <hyperlink ref="M24" r:id="rId12"/>
-    <hyperlink ref="M25" r:id="rId13"/>
-    <hyperlink ref="M26" r:id="rId14"/>
-    <hyperlink ref="M27" r:id="rId15"/>
-    <hyperlink ref="M29" r:id="rId16"/>
-    <hyperlink ref="M30" r:id="rId17"/>
-    <hyperlink ref="M31" r:id="rId18"/>
-    <hyperlink ref="M32" r:id="rId19"/>
-    <hyperlink ref="M34" r:id="rId20"/>
-    <hyperlink ref="M36" r:id="rId21"/>
-    <hyperlink ref="M37" r:id="rId22"/>
-    <hyperlink ref="M39" r:id="rId23"/>
-    <hyperlink ref="M40" r:id="rId24"/>
-    <hyperlink ref="M42" r:id="rId25"/>
-    <hyperlink ref="M43" r:id="rId26"/>
-    <hyperlink ref="M45" r:id="rId27"/>
-    <hyperlink ref="M46" r:id="rId28"/>
-    <hyperlink ref="M48" r:id="rId29"/>
-    <hyperlink ref="M49" r:id="rId30"/>
-    <hyperlink ref="M51" r:id="rId31"/>
-    <hyperlink ref="M53" r:id="rId32"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M30" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M42" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M45" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M49" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M51" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M53" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
